--- a/ExtractSREO/SREOs/NorthBridge.xlsx
+++ b/ExtractSREO/SREOs/NorthBridge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/565dc21372e1cd42/Desktop/LoanBoss/SREOs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\SREOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBBAD1E7-1A00-4B0F-ABC5-C77D038DD2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E96C0B-7993-4148-AD2C-11984B4BA0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" xr2:uid="{C69EEC3C-C30C-4DCB-9CEB-3741296DDD86}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" xr2:uid="{C69EEC3C-C30C-4DCB-9CEB-3741296DDD86}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 Mortgage list" sheetId="1" r:id="rId1"/>
@@ -1492,8 +1492,8 @@
   <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ34" sqref="AQ34"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1532,7 @@
     <row r="1" spans="1:44" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44733</v>
+        <v>44747</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>0</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="X2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44733</v>
+        <v>44747</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>30</v>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="T12" s="51">
         <f ca="1">DATEDIF(TODAY(),M12,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" s="52" t="s">
         <v>64</v>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="T13" s="51">
         <f ca="1">DATEDIF(TODAY(),M13,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" s="52" t="s">
         <v>64</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="T14" s="51">
         <f ca="1">DATEDIF(TODAY(),M14,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" s="52" t="s">
         <v>64</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="T15" s="51">
         <f ca="1">DATEDIF(TODAY(),M15,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" s="52" t="s">
         <v>64</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="T16" s="51">
         <f ca="1">DATEDIF(TODAY(),M16,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="52" t="s">
         <v>64</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="T18" s="51">
         <f ca="1">DATEDIF(TODAY(),M18,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="52" t="s">
         <v>64</v>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="T19" s="51">
         <f ca="1">DATEDIF(TODAY(),M19,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="52" t="s">
         <v>64</v>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="T20" s="51">
         <f ca="1">DATEDIF(TODAY(),M20,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U20" s="52" t="s">
         <v>64</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="T24" s="51">
         <f ca="1">DATEDIF(TODAY(),M24,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U24" s="52" t="s">
         <v>64</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="T26" s="51">
         <f t="shared" ref="T26:T33" ca="1" si="1">DATEDIF(TODAY(),M26,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U26" s="52" t="s">
         <v>64</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="T28" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U28" s="52" t="s">
         <v>64</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="T29" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U29" s="52" t="s">
         <v>148</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="T30" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U30" s="52" t="s">
         <v>64</v>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="T31" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U31" s="52" t="s">
         <v>64</v>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="T32" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U32" s="52" t="s">
         <v>64</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="T33" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U33" s="52" t="s">
         <v>64</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="T34" s="51">
         <f ca="1">DATEDIF(TODAY(),M34,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U34" s="52" t="s">
         <v>64</v>
@@ -3965,7 +3965,7 @@
     <row r="1" spans="1:44" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44733</v>
+        <v>44747</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>0</v>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="X2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44733</v>
+        <v>44747</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>30</v>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="T11" s="51">
         <f ca="1">DATEDIF(TODAY(),M11,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U11" s="52" t="s">
         <v>64</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="T12" s="51">
         <f ca="1">DATEDIF(TODAY(),M12,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" s="52" t="s">
         <v>64</v>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="T14" s="51">
         <f ca="1">DATEDIF(TODAY(),M14,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" s="52" t="s">
         <v>64</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="T15" s="51">
         <f ca="1">DATEDIF(TODAY(),M15,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" s="52" t="s">
         <v>64</v>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="T16" s="51">
         <f ca="1">DATEDIF(TODAY(),M16,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="52" t="s">
         <v>64</v>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="T18" s="51">
         <f ca="1">DATEDIF(TODAY(),M18,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="52" t="s">
         <v>64</v>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="T19" s="18">
         <f ca="1">DATEDIF(TODAY(),M19,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="19" t="s">
         <v>64</v>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="T20" s="18">
         <f ca="1">DATEDIF(TODAY(),M20,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U20" s="19" t="s">
         <v>64</v>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="T24" s="18">
         <f ca="1">DATEDIF(TODAY(),M24,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U24" s="19" t="s">
         <v>64</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="T26" s="18">
         <f t="shared" ref="T26:T33" ca="1" si="1">DATEDIF(TODAY(),M26,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U26" s="19" t="s">
         <v>64</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="T28" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U28" s="19" t="s">
         <v>64</v>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="T29" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U29" s="19" t="s">
         <v>148</v>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="T30" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U30" s="19" t="s">
         <v>64</v>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="T31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U31" s="19" t="s">
         <v>64</v>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="T32" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U32" s="19" t="s">
         <v>64</v>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="T33" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U33" s="19" t="s">
         <v>64</v>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="T34" s="18">
         <f ca="1">DATEDIF(TODAY(),M34,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U34" s="19" t="s">
         <v>64</v>
@@ -6406,7 +6406,7 @@
     <row r="1" spans="1:44" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44733</v>
+        <v>44747</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>0</v>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="X2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44733</v>
+        <v>44747</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>30</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="T12" s="51">
         <f ca="1">DATEDIF(TODAY(),M12,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" s="52" t="s">
         <v>64</v>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="T13" s="51">
         <f ca="1">DATEDIF(TODAY(),M13,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" s="52" t="s">
         <v>64</v>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="T14" s="51">
         <f ca="1">DATEDIF(TODAY(),M14,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" s="52" t="s">
         <v>64</v>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="T15" s="51">
         <f ca="1">DATEDIF(TODAY(),M15,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" s="52" t="s">
         <v>64</v>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="T16" s="51">
         <f ca="1">DATEDIF(TODAY(),M16,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="52" t="s">
         <v>64</v>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="T18" s="51">
         <f ca="1">DATEDIF(TODAY(),M18,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="52" t="s">
         <v>64</v>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="T19" s="51">
         <f ca="1">DATEDIF(TODAY(),M19,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="52" t="s">
         <v>64</v>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="T20" s="51">
         <f ca="1">DATEDIF(TODAY(),M20,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U20" s="52" t="s">
         <v>64</v>
@@ -7946,7 +7946,7 @@
       </c>
       <c r="T24" s="51">
         <f ca="1">DATEDIF(TODAY(),M24,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U24" s="52" t="s">
         <v>64</v>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="T26" s="51">
         <f t="shared" ref="T26:T33" ca="1" si="1">DATEDIF(TODAY(),M26,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U26" s="52" t="s">
         <v>64</v>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="T28" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U28" s="52" t="s">
         <v>64</v>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="T29" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U29" s="52" t="s">
         <v>148</v>
@@ -8442,7 +8442,7 @@
       </c>
       <c r="T30" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U30" s="52" t="s">
         <v>64</v>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="T31" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U31" s="52" t="s">
         <v>64</v>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="T32" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U32" s="52" t="s">
         <v>64</v>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="T33" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U33" s="52" t="s">
         <v>64</v>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="T34" s="51">
         <f ca="1">DATEDIF(TODAY(),M34,"M")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U34" s="52" t="s">
         <v>64</v>
